--- a/results/FrequencyTables/26990633_LTR-M.xlsx
+++ b/results/FrequencyTables/26990633_LTR-M.xlsx
@@ -468,70 +468,70 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.00447093889716841</v>
       </c>
       <c r="D2">
-        <v>0.0103092783505155</v>
+        <v>0.0439642324888227</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.00745156482861401</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.994038748137109</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0476900149031297</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.0312965722801788</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.93591654247392</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.000745156482861401</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.0022354694485842</v>
       </c>
       <c r="L2">
-        <v>0.618556701030928</v>
+        <v>0.737704918032787</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>0.97317436661699</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.959761549925484</v>
       </c>
       <c r="P2">
-        <v>0.11340206185567</v>
+        <v>0.230998509687034</v>
       </c>
       <c r="Q2">
-        <v>0.731958762886598</v>
+        <v>0.590163934426229</v>
       </c>
       <c r="R2">
-        <v>1</v>
+        <v>0.968703427719821</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.0253353204172876</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.0029806259314456</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>0.0134128166915052</v>
       </c>
       <c r="V2">
-        <v>0.103092783505155</v>
+        <v>0.168405365126677</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.00670640834575261</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.011177347242921</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -539,73 +539,73 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.967213114754098</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0.959761549925484</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.00745156482861401</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.0320417287630402</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.0029806259314456</v>
       </c>
       <c r="G3">
-        <v>0.0412371134020619</v>
+        <v>0.011177347242921</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.000745156482861401</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.979135618479881</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.000745156482861401</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.0014903129657228</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>0.968703427719821</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.0029806259314456</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.0245901639344262</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.00819672131147541</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>0.0290611028315946</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>0.0268256333830104</v>
       </c>
       <c r="S3">
-        <v>0.938144329896907</v>
+        <v>0.931445603576751</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>0.011177347242921</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>0.000745156482861401</v>
       </c>
       <c r="V3">
-        <v>0.896907216494845</v>
+        <v>0.789865871833085</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>0.0320417287630402</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>0.0327868852459016</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -613,73 +613,73 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.0014903129657228</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.0268256333830104</v>
       </c>
       <c r="D4">
-        <v>0.989690721649485</v>
+        <v>0.922503725782414</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0.960506706408346</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.0014903129657228</v>
       </c>
       <c r="G4">
-        <v>0.958762886597938</v>
+        <v>0.927719821162444</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0029806259314456</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.00521609538002981</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.000745156482861401</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.00819672131147541</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.00447093889716841</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.018628912071535</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.0119225037257824</v>
       </c>
       <c r="P4">
-        <v>0.88659793814433</v>
+        <v>0.760059612518629</v>
       </c>
       <c r="Q4">
-        <v>0.268041237113402</v>
+        <v>0.3725782414307</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>0.003725782414307</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.00894187779433681</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>0.0253353204172876</v>
       </c>
       <c r="U4">
-        <v>1</v>
+        <v>0.982861400894188</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>0.0275707898658718</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>0.0208643815201192</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>0.938897168405365</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -687,73 +687,73 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.0312965722801788</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.00894187779433681</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.026080476900149</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.0014903129657228</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0134128166915052</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0.964977645305514</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.0588673621460507</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.0193740685543964</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0.997019374068554</v>
       </c>
       <c r="L5">
-        <v>0.381443298969072</v>
+        <v>0.252608047690015</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.0268256333830104</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.00521609538002981</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.003725782414307</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>0.00819672131147541</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>0.000745156482861401</v>
       </c>
       <c r="S5">
-        <v>0.0618556701030928</v>
+        <v>0.033532041728763</v>
       </c>
       <c r="T5">
-        <v>1</v>
+        <v>0.960506706408346</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>0.0029806259314456</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>0.0141579731743666</v>
       </c>
       <c r="W5">
-        <v>1</v>
+        <v>0.940387481371088</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>0.0171385991058122</v>
       </c>
     </row>
   </sheetData>
